--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1050141.722364159</v>
+        <v>1051609.03191208</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443407</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6420162.303650069</v>
+        <v>6476757.274676123</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F2" t="n">
-        <v>181.0201173812374</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>13.94347069460057</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -829,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770588</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>65.17935300803268</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>178.157313031983</v>
       </c>
     </row>
     <row r="9">
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>185.6266417984382</v>
+        <v>197.0267637357615</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1505,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>120.0500723064956</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>230.8744955960827</v>
-      </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1923,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1938,10 +1940,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>83.0681699573841</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1986,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,25 +2086,25 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="21">
@@ -2160,16 +2162,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>121.9333552767668</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.503137506490904</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2220,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2278,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2409,16 +2411,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>87.68958101214713</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,73 +2554,73 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>74.49518425430659</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2801,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,19 +2839,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>4.122280040031055</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>47.50281385232029</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2989,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>123.4225424657643</v>
       </c>
       <c r="E33" t="n">
-        <v>130.1562265640802</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3159,16 +3161,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3196,46 +3198,46 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>70.63127589868708</v>
+        <v>30.84426646537344</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3585,10 +3587,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>5.4761733385883</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3633,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>150.2142914581905</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3986,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>181.0201173812374</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>159.3125043259865</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>184.9058847316063</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>214.050116039799</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>214.050116039799</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>214.050116039799</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O3" t="n">
-        <v>626.8294255367553</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>807.9870639201918</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>634.5697193708606</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
-        <v>432.3831247296267</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="U3" t="n">
-        <v>224.7893424687375</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="V3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="W3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="X3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.6989813239244</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>443.6989813239244</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>443.6989813239244</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>443.6989813239244</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>236.1051990630351</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>660.5968149695918</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>660.5968149695918</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>651.2927635848137</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>651.2927635848137</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>651.2927635848137</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>651.2927635848137</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>720.9018483060073</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>571.967438644756</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>506.1297083336119</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.7436296931158</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>110.7436296931158</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>110.7436296931158</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>110.7436296931158</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>110.7436296931158</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>110.7436296931158</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>110.7436296931158</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>110.7436296931158</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>110.7436296931158</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>110.7436296931158</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>110.7436296931158</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>110.7436296931158</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>639.2227743377304</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="C8" t="n">
-        <v>639.2227743377304</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="D8" t="n">
-        <v>639.2227743377304</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="E8" t="n">
-        <v>431.628992076841</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0352098159517</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>639.2227743377304</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>639.2227743377304</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>639.2227743377304</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>639.2227743377304</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>639.2227743377304</v>
+        <v>784.1002736601483</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1080096386462</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>619.8847831118876</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>412.2910008509983</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>204.697218590109</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W9" t="n">
-        <v>17.19556020784815</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>17.19556020784815</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.792197863116</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>189.1984156022267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>189.1984156022267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>189.1984156022267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>189.1984156022267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>189.1984156022267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>189.1984156022267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U11" t="n">
-        <v>811.9797623848946</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V11" t="n">
-        <v>811.9797623848946</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W11" t="n">
-        <v>811.9797623848946</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>811.9797623848946</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>604.3859801240053</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>752.1869855945927</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>822.0713777531216</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>16.44142755506243</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5494,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="F17" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="D17" t="n">
-        <v>720.6083788665362</v>
-      </c>
-      <c r="E17" t="n">
-        <v>720.6083788665362</v>
-      </c>
-      <c r="F17" t="n">
-        <v>487.4018176583718</v>
-      </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>389.207901534694</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>242.673343561579</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>103.9425181441945</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5634,10 +5636,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="19">
@@ -5701,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>509.4769954460863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>492.48569440222</v>
+        <v>142.4461484402802</v>
       </c>
       <c r="C21" t="n">
-        <v>318.0326651210929</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>169.0982554598417</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>169.0982554598417</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>22.56369748672662</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>22.56369748672662</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>22.56369748672662</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5837,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
         <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>660.701031422288</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X21" t="n">
-        <v>660.701031422288</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y21" t="n">
-        <v>660.701031422288</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>22.57944215788615</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>22.57944215788615</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>22.57944215788615</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>499.5061853699102</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C24" t="n">
-        <v>325.0531560887832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>875.481821154932</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>875.481821154932</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>875.481821154932</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>875.481821154932</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>875.481821154932</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>875.481821154932</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>875.481821154932</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>667.7215223899782</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
         <v>19.28114311021272</v>
@@ -6166,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
         <v>262.7299197543128</v>
@@ -6212,7 +6214,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.215552771464</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6315,40 +6317,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>787.6399652005859</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>787.6399652005859</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="U27" t="n">
-        <v>787.6399652005859</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="V27" t="n">
-        <v>787.6399652005859</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W27" t="n">
-        <v>544.1911885564859</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X27" t="n">
-        <v>544.1911885564859</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y27" t="n">
-        <v>336.430889791532</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>802.5825927271064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C29" t="n">
-        <v>559.1338160830064</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D29" t="n">
-        <v>559.1338160830064</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E29" t="n">
-        <v>559.1338160830064</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F29" t="n">
-        <v>315.6850394389064</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G29" t="n">
-        <v>315.6850394389064</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X29" t="n">
-        <v>802.5825927271064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y29" t="n">
-        <v>802.5825927271064</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>660.701031422288</v>
+        <v>23.44506234256733</v>
       </c>
       <c r="C30" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>511.7666217610367</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>352.5291667555812</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>205.9946087824662</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>67.26378336508171</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>67.26378336508171</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6548,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6570,22 +6572,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>660.701031422288</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X30" t="n">
-        <v>660.701031422288</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="Y30" t="n">
-        <v>660.701031422288</v>
+        <v>191.6603993626354</v>
       </c>
     </row>
     <row r="31">
@@ -6637,13 +6639,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>22.57944215788615</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.7520790335261</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C33" t="n">
-        <v>150.7520790335261</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D33" t="n">
-        <v>150.7520790335261</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,10 +6782,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
         <v>234.810827406191</v>
@@ -6807,22 +6809,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>562.4161926976942</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>318.9674160535941</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>318.9674160535941</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>318.9674160535941</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
         <v>19.28114311021272</v>
@@ -6883,25 +6885,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>281.5846883638847</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="C36" t="n">
-        <v>281.5846883638847</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="D36" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E36" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>892.7124323806493</v>
+        <v>658.3144568016924</v>
       </c>
       <c r="U36" t="n">
-        <v>892.7124323806493</v>
+        <v>658.3144568016924</v>
       </c>
       <c r="V36" t="n">
-        <v>657.5603241489066</v>
+        <v>658.3144568016924</v>
       </c>
       <c r="W36" t="n">
-        <v>657.5603241489066</v>
+        <v>658.3144568016924</v>
       </c>
       <c r="X36" t="n">
-        <v>657.5603241489066</v>
+        <v>658.3144568016924</v>
       </c>
       <c r="Y36" t="n">
-        <v>449.8000253839527</v>
+        <v>450.5541580367384</v>
       </c>
     </row>
     <row r="37">
@@ -7123,7 +7125,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>358.5031156175915</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>184.0500863364645</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>526.7184526376595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>526.7184526376595</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X39" t="n">
-        <v>526.7184526376595</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y39" t="n">
-        <v>526.7184526376595</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
         <v>829.5248650203655</v>
@@ -7363,19 +7365,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>660.701031422288</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W42" t="n">
-        <v>774.2973583780361</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>220.1101922903266</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C45" t="n">
-        <v>220.1101922903266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>220.1101922903266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>220.1101922903266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>220.1101922903266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>220.1101922903266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>106.7410566979059</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V45" t="n">
-        <v>822.0713777531216</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y45" t="n">
-        <v>220.1101922903266</v>
+        <v>354.6558939327403</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>397.2306702988408</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>261.0929869123474</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>234.2160227667432</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,13 +8458,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>160.0786444523452</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,19 +8695,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>213.1865395540696</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8933,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N15" t="n">
-        <v>222.9614904056321</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9483,16 +9485,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,16 +10196,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>222.9614904056321</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11382,13 +11384,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>51.39576075832579</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23391,13 +23393,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>112.7505148429297</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>112.7505148429297</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23732,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456287</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23811,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23826,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>29.16727427911236</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23874,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,10 +24034,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="21">
@@ -24048,16 +24050,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>50.77514371154891</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24066,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>86.89349534492418</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24108,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24166,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>93.55107118671071</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>379.4685256062839</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24254,25 +24256,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24297,16 +24299,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.468253140496</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24494,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>97.18798684953123</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>90.01494526515901</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24689,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>268.4601236753789</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>168.5862189482847</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>41.89381899909479</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24810,19 +24812,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24877,16 +24879,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24932,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,19 +24967,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>24.02252309887449</v>
       </c>
       <c r="E33" t="n">
-        <v>27.4888538913207</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25047,16 +25049,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25123,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25199,7 +25201,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>129.5334527961345</v>
+        <v>169.3204622294482</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25363,10 +25365,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>314.8059134233278</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25473,10 +25475,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>141.9688922260505</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25521,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>67.06409450346541</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25552,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25673,28 +25675,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>7.430788997210414</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>204.3987039795849</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25874,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25919,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>168.2208513361757</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>7.220679323880802</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,10 +25961,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.77681104569805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>971305.3686500757</v>
+        <v>960290.9713697054</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>971305.3686500757</v>
+        <v>973877.4625271498</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>971305.3686500757</v>
+        <v>973877.4625271498</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402588.0716813531</v>
+        <v>424066.9846253286</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402588.071681353</v>
+        <v>424066.9846253288</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>424066.9846253287</v>
+        <v>424066.9846253288</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>424066.9846253287</v>
+        <v>424066.9846253288</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402588.0716813529</v>
+        <v>424066.9846253287</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402588.0716813531</v>
+        <v>424066.9846253288</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="F2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="G2" t="n">
         <v>207700.8406641654</v>
       </c>
       <c r="H2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="I2" t="n">
         <v>207700.8406641654</v>
@@ -26338,7 +26340,7 @@
         <v>207700.8406641654</v>
       </c>
       <c r="K2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="L2" t="n">
         <v>207700.8406641654</v>
@@ -26350,10 +26352,10 @@
         <v>207700.8406641654</v>
       </c>
       <c r="O2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="P2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336325.0632591379</v>
+        <v>366277.5278986196</v>
       </c>
       <c r="C4" t="n">
-        <v>336325.0632591379</v>
+        <v>329330.531561994</v>
       </c>
       <c r="D4" t="n">
-        <v>336325.0632591379</v>
+        <v>329330.5315619939</v>
       </c>
       <c r="E4" t="n">
-        <v>47787.18911168982</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="F4" t="n">
-        <v>47787.18911168983</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="G4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="H4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="I4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="J4" t="n">
         <v>50385.00392753457</v>
@@ -26448,16 +26450,16 @@
         <v>50385.00392753457</v>
       </c>
       <c r="M4" t="n">
-        <v>50385.00392753456</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="N4" t="n">
-        <v>50385.00392753456</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="O4" t="n">
-        <v>47787.18911168982</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="P4" t="n">
-        <v>47787.18911168982</v>
+        <v>50385.00392753457</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61829.20138250204</v>
+        <v>92059.13724335117</v>
       </c>
       <c r="C6" t="n">
-        <v>130702.9579641917</v>
+        <v>74962.98365275323</v>
       </c>
       <c r="D6" t="n">
-        <v>130702.9579641918</v>
+        <v>135539.3058394213</v>
       </c>
       <c r="E6" t="n">
-        <v>136914.3782401272</v>
+        <v>142662.1679728692</v>
       </c>
       <c r="F6" t="n">
-        <v>136914.3782401272</v>
+        <v>142662.1679728692</v>
       </c>
       <c r="G6" t="n">
-        <v>132933.1249987021</v>
+        <v>142662.1679728692</v>
       </c>
       <c r="H6" t="n">
         <v>142662.1679728692</v>
@@ -26543,10 +26545,10 @@
         <v>142662.1679728692</v>
       </c>
       <c r="J6" t="n">
-        <v>88889.65708265977</v>
+        <v>128660.9358325899</v>
       </c>
       <c r="K6" t="n">
-        <v>142662.1679728693</v>
+        <v>94405.21503923656</v>
       </c>
       <c r="L6" t="n">
         <v>142662.1679728692</v>
@@ -26558,10 +26560,10 @@
         <v>142662.1679728692</v>
       </c>
       <c r="O6" t="n">
-        <v>136914.3782401272</v>
+        <v>142662.1679728692</v>
       </c>
       <c r="P6" t="n">
-        <v>136914.3782401272</v>
+        <v>142662.1679728692</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
-        <v>225.855928360474</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>292.3409665638034</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27503,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>86.21436345804257</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>179.5541378552689</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27549,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>114.478450348509</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>108.7146434974898</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>132.0100060968963</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>318.5412475992045</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,13 +27697,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>92.46572744736827</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27795,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27819,7 +27821,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>137.4656039084743</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27853,28 +27855,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>208.0806256240706</v>
       </c>
     </row>
     <row r="9">
@@ -27977,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>66.06834136248136</v>
+        <v>54.66821942515813</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28014,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>161.4642553288535</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>127.1185794980172</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,13 +35178,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>21.52426467247106</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35416,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>70.5902951096252</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35653,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N15" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -36133,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36203,16 +36205,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>240.0046611659691</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1051609.03191208</v>
+        <v>982757.7354706426</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6476757.274676123</v>
+        <v>6476757.274676121</v>
       </c>
     </row>
     <row r="11">
@@ -670,46 +670,46 @@
         <v>53.51252900994975</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.015063725959897</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G2" t="n">
+      <c r="S2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="H2" t="n">
-        <v>47.13383555196375</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>46.38724422570588</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="S3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="T3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="U3" t="n">
-        <v>46.38724422570589</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>53.51252900994975</v>
+        <v>3.892417739585685</v>
       </c>
       <c r="H4" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="I4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>192.9610988726774</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>52.42556848774752</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>62.11690385378651</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>241.0142888776591</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,10 +1150,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.157313031983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>85.50420005633993</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>197.0267637357615</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>133.186967585368</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1414,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -1511,10 +1511,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F14" t="n">
         <v>241.0142888776591</v>
@@ -1627,10 +1627,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1855,61 +1855,61 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>83.0681699573841</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>98.19508828039909</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,64 +2092,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>121.9333552767668</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>89.70401384132532</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
@@ -2399,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2724,52 +2724,52 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>4.122280040031055</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>43.2448826242281</v>
       </c>
     </row>
     <row r="31">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3113,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>123.4225424657643</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,23 +3265,23 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3362,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>30.84426646537344</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3502,23 +3502,23 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>50.46697834767978</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>184.6308886574542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3666,67 +3666,67 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -3796,13 +3796,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3827,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>150.2142914581905</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,13 +3875,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3988,61 +3988,61 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>159.3125043259865</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>98.10479885422595</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,67 +4137,67 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>105.9439968277793</v>
+        <v>34.85382110433888</v>
       </c>
       <c r="G2" t="n">
-        <v>51.89093722176946</v>
+        <v>19.39651048299034</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>19.39651048299034</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L2" t="n">
         <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4351,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4412,49 +4412,49 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>110.2358097604965</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
+        <v>55.11790488024824</v>
+      </c>
+      <c r="N3" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="O3" t="n">
         <v>161.0727123199487</v>
       </c>
-      <c r="N3" t="n">
-        <v>214.050116039799</v>
-      </c>
-      <c r="O3" t="n">
-        <v>214.050116039799</v>
-      </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>51.89093722176946</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>5.035134973581694</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="V3" t="n">
-        <v>5.035134973581694</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="W3" t="n">
-        <v>5.035134973581694</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>113.1412541856014</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0643627756056</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0643627756056</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0643627756056</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="G4" t="n">
-        <v>82.01130316959576</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="H4" t="n">
-        <v>27.95824356358591</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>901.3128081835791</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>901.3128081835791</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>901.3128081835791</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>673.0891899199682</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>437.9370816882255</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="7">
@@ -4710,7 +4710,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>784.1002736601483</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C8" t="n">
-        <v>540.6514970160482</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>540.6514970160482</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>297.2027203719481</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>290.2572196227447</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>753.253405673024</v>
       </c>
       <c r="Y8" t="n">
-        <v>784.1002736601483</v>
+        <v>753.253405673024</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>877.6892766658484</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>675.5026820246144</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>675.5026820246144</v>
       </c>
       <c r="V9" t="n">
-        <v>634.6640077999109</v>
+        <v>440.3505737928717</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>440.3505737928717</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>440.3505737928717</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>440.3505737928717</v>
       </c>
     </row>
     <row r="10">
@@ -4944,25 +4944,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>284.1276524520142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V11" t="n">
-        <v>40.6788758079141</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="12">
@@ -5123,43 +5123,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X12" t="n">
         <v>19.28114311021272</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5232,19 +5232,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5469,19 +5469,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>548.4453565401495</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>389.207901534694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>242.673343561579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>103.9425181441945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,16 +5600,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>864.8701976516472</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>636.6465793880363</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X18" t="n">
-        <v>756.2056553051034</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y18" t="n">
-        <v>548.4453565401495</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="19">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X20" t="n">
-        <v>477.1596022224361</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.4461484402802</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X21" t="n">
-        <v>518.4217842253022</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y21" t="n">
-        <v>310.6614854603483</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -5989,7 +5989,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6028,13 +6028,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X23" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>477.1596022224361</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6168,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>852.7947480059265</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>609.3459713618265</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X27" t="n">
-        <v>401.4944711562937</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y27" t="n">
-        <v>193.7341723913397</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.0360370837871</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C29" t="n">
-        <v>30.58726043968704</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D29" t="n">
-        <v>30.58726043968704</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E29" t="n">
-        <v>30.58726043968704</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F29" t="n">
-        <v>30.58726043968704</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G29" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>517.4848137278872</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>517.4848137278872</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V29" t="n">
-        <v>274.0360370837871</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W29" t="n">
-        <v>274.0360370837871</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X29" t="n">
-        <v>274.0360370837871</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.0360370837871</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23.44506234256733</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>399.5118995681682</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X30" t="n">
-        <v>191.6603993626354</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y30" t="n">
-        <v>191.6603993626354</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="31">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
         <v>262.7299197543128</v>
@@ -6691,7 +6691,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>588.4532163200711</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="C33" t="n">
-        <v>588.4532163200711</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="D33" t="n">
-        <v>463.7839815061678</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="E33" t="n">
-        <v>304.5465265007123</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6788,16 +6788,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6812,19 +6812,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="Y33" t="n">
-        <v>588.4532163200711</v>
+        <v>116.7808214123601</v>
       </c>
     </row>
     <row r="34">
@@ -6885,10 +6885,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>282.3388210166704</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C36" t="n">
-        <v>282.3388210166704</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D36" t="n">
-        <v>133.4044113554191</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E36" t="n">
-        <v>133.4044113554191</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="F36" t="n">
-        <v>133.4044113554191</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>658.3144568016924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>658.3144568016924</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>658.3144568016924</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>658.3144568016924</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>658.3144568016924</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y36" t="n">
-        <v>450.5541580367384</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="37">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W38" t="n">
-        <v>569.2254314512334</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X38" t="n">
-        <v>569.2254314512334</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y38" t="n">
-        <v>325.7766548071333</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7259,13 +7259,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>621.8469951458151</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7286,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>777.5613083818946</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>569.7098081763618</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>361.9495094114078</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>942.6594228129348</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>731.528039392485</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U41" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V41" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W41" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X41" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>660.701031422288</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C42" t="n">
-        <v>660.701031422288</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D42" t="n">
-        <v>660.701031422288</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E42" t="n">
-        <v>508.9694238887622</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F42" t="n">
-        <v>362.4348659156472</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G42" t="n">
-        <v>223.7040404982626</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7508,34 +7508,34 @@
         <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>660.701031422288</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>660.701031422288</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W42" t="n">
-        <v>660.701031422288</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X42" t="n">
-        <v>660.701031422288</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y42" t="n">
-        <v>660.701031422288</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7678,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>193.7341723913397</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="E45" t="n">
         <v>19.28114311021272</v>
@@ -7733,19 +7733,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>562.4161926976942</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>562.4161926976942</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X45" t="n">
-        <v>562.4161926976942</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y45" t="n">
-        <v>354.6558939327403</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
         <v>19.28114311021272</v>
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>271.4402576706899</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>193.4844405477277</v>
@@ -8072,13 +8072,13 @@
         <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9248,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9260,7 +9260,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,16 +9728,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>242.4075215744184</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>292.5201795090609</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10436,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10907,16 +10907,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>233.6791982203443</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11156,10 +11156,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11381,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11393,10 +11393,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,10 +23263,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>270.2632538415217</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23302,25 +23302,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23399,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F14" t="n">
         <v>165.8617568640524</v>
@@ -23515,10 +23515,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>36.26901108812098</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23785,19 +23785,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>29.16727427911236</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,19 +23864,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>101.9696404144225</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>312.4655587480054</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24016,28 +24016,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>50.77514371154891</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>67.94106661407562</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24101,13 +24101,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24177,13 +24177,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
@@ -24287,28 +24287,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,22 +24335,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24408,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24457,7 +24457,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,19 +24496,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>117.2220797075721</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,13 +24575,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>90.01494526515901</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>344.9587297138598</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>168.5862189482847</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>162.4378131530763</v>
       </c>
     </row>
     <row r="31">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24976,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25001,16 +25001,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>24.02252309887449</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>48.54453087425802</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25052,13 +25052,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25125,13 +25125,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
-        <v>302.8566240687152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25201,7 +25201,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25250,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>82.3461458454407</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>169.3204622294482</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>298.3140538843193</v>
       </c>
       <c r="C38" t="n">
-        <v>314.8059134233278</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25487,7 +25487,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>82.43643527161383</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>67.06409450346541</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25715,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>7.430788997210414</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>76.82817876295802</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,13 +25763,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25918,19 +25918,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.220679323880802</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25952,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>59.540281601175</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25994,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26003,16 +26003,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>424066.9846253288</v>
+        <v>424066.9846253286</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>424066.9846253288</v>
+        <v>424066.9846253287</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>424066.9846253288</v>
+        <v>424066.9846253287</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>424066.9846253288</v>
+        <v>424066.9846253287</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>424066.9846253288</v>
+        <v>424066.9846253287</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>424066.9846253287</v>
+        <v>424066.9846253288</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>424066.9846253288</v>
+        <v>424066.9846253287</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>424066.9846253288</v>
+        <v>424066.9846253286</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>424066.9846253287</v>
+        <v>424066.9846253286</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>424066.9846253288</v>
+        <v>424066.9846253286</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>207700.8406641654</v>
@@ -26355,7 +26355,7 @@
         <v>207700.8406641654</v>
       </c>
       <c r="P2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641653</v>
       </c>
     </row>
     <row r="3">
@@ -26441,10 +26441,10 @@
         <v>50385.00392753457</v>
       </c>
       <c r="J4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="K4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="L4" t="n">
         <v>50385.00392753457</v>
@@ -26459,7 +26459,7 @@
         <v>50385.00392753457</v>
       </c>
       <c r="P4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92059.13724335117</v>
+        <v>92059.13724335094</v>
       </c>
       <c r="C6" t="n">
-        <v>74962.98365275323</v>
+        <v>74962.98365275317</v>
       </c>
       <c r="D6" t="n">
-        <v>135539.3058394213</v>
+        <v>135539.3058394214</v>
       </c>
       <c r="E6" t="n">
-        <v>142662.1679728692</v>
+        <v>130444.1573528287</v>
       </c>
       <c r="F6" t="n">
-        <v>142662.1679728692</v>
+        <v>130444.1573528287</v>
       </c>
       <c r="G6" t="n">
-        <v>142662.1679728692</v>
+        <v>130444.1573528287</v>
       </c>
       <c r="H6" t="n">
-        <v>142662.1679728692</v>
+        <v>130444.1573528288</v>
       </c>
       <c r="I6" t="n">
-        <v>142662.1679728692</v>
+        <v>130444.1573528287</v>
       </c>
       <c r="J6" t="n">
-        <v>128660.9358325899</v>
+        <v>116442.9252125494</v>
       </c>
       <c r="K6" t="n">
-        <v>94405.21503923656</v>
+        <v>82187.20441919607</v>
       </c>
       <c r="L6" t="n">
-        <v>142662.1679728692</v>
+        <v>130444.1573528287</v>
       </c>
       <c r="M6" t="n">
-        <v>142662.1679728692</v>
+        <v>130444.1573528287</v>
       </c>
       <c r="N6" t="n">
-        <v>142662.1679728692</v>
+        <v>130444.1573528287</v>
       </c>
       <c r="O6" t="n">
-        <v>142662.1679728692</v>
+        <v>130444.1573528287</v>
       </c>
       <c r="P6" t="n">
-        <v>142662.1679728692</v>
+        <v>130444.1573528286</v>
       </c>
     </row>
   </sheetData>
@@ -27390,19 +27390,19 @@
         <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>292.3409665638034</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>207.460825844446</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27466,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>179.5541378552689</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3194511719875</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27551,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.478450348509</v>
+        <v>164.0985616188731</v>
       </c>
       <c r="H4" t="n">
         <v>108.7146434974898</v>
       </c>
       <c r="I4" t="n">
-        <v>132.0100060968963</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>213.9149468690341</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>170.6702810763838</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>38.04093029885662</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27751,13 +27751,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F7" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>124.2586028933485</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.0260875537777</v>
       </c>
       <c r="Y8" t="n">
-        <v>208.0806256240706</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27946,10 +27946,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>86.1789710474979</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>54.66821942515813</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284433</v>
+        <v>37.69799725872717</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="L2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L2" t="n">
-        <v>51.35040662570935</v>
-      </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570936</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,10 +35658,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35980,7 +35980,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36448,16 +36448,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>99.8112771299739</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>161.1784674257276</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37627,16 +37627,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37876,10 +37876,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38113,10 +38113,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
